--- a/DCAU-Lyn_Cargo_ERP.xlsx
+++ b/DCAU-Lyn_Cargo_ERP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DCAU-0001" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>El sistema muestra los campos donde llenara los datos del cliente</t>
-  </si>
-  <si>
-    <t>El  usuario llena los campos con los datos del cliente: Nombre, Apellido, Cedula, Telefono, Correo</t>
   </si>
   <si>
     <t>El sistema guarda los datos del cliente creado</t>
@@ -463,6 +460,9 @@
   <si>
     <t xml:space="preserve">El usuario llena los siguientes campos: Cliente, Puerto de Salida, Puerto de Entrada, Tipo de operacion (importacion, exportacion, aduanas y transporte terrestres), medio de trannsporte (Aereo, maritimo, terrestre), descripcion de mercancia, Cantidad por Servicio(contenedores, bultos, peso), Fecha validacion hasta, </t>
   </si>
+  <si>
+    <t>El  usuario llena los campos con los datos del cliente: Nombre, Apellido, Cedula, Telefono, Direccion, Correo</t>
+  </si>
 </sst>
 </file>
 
@@ -634,9 +634,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,30 +652,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -690,6 +663,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -708,6 +684,30 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1034,92 +1034,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1142,68 +1142,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -1211,16 +1211,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -1228,16 +1228,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -1245,29 +1245,29 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -1275,14 +1275,14 @@
       <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -1290,14 +1290,14 @@
       <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -1305,14 +1305,14 @@
       <c r="A23" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1320,12 +1320,12 @@
       <c r="A24" s="10">
         <v>4</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
@@ -1333,12 +1333,12 @@
       <c r="A25" s="10">
         <v>5</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
@@ -1346,36 +1346,36 @@
       <c r="A26" s="10">
         <v>6</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -1383,168 +1383,168 @@
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -3442,6 +3442,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B13:G13"/>
@@ -3458,35 +3487,6 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3496,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I220"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:G21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,92 +3511,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3619,68 +3619,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -3688,16 +3688,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
+      <c r="B17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -3705,16 +3705,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -3722,16 +3722,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -3739,16 +3739,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -3756,16 +3756,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -3773,16 +3773,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -3790,16 +3790,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -3807,29 +3807,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -3837,14 +3837,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -3852,14 +3852,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -3867,14 +3867,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -3889,12 +3889,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -3902,36 +3902,36 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -3939,168 +3939,2733 @@
       <c r="A34" s="11">
         <v>1</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I220"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>7</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>9</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>5</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>6</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -6057,2571 +8622,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I220"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>3</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>2</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>3</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>5</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>6</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>1</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I220"/>
@@ -8641,92 +8641,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8749,68 +8749,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -8818,16 +8818,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -8835,16 +8835,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -8852,16 +8852,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -8869,16 +8869,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -8886,16 +8886,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -8903,16 +8903,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="B22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -8920,16 +8920,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -8937,29 +8937,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -8967,14 +8967,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -8982,14 +8982,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -8997,14 +8997,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -9019,12 +9019,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -9032,36 +9032,36 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -9082,155 +9082,155 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -11128,52 +11128,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -11182,6 +11136,52 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11207,92 +11207,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11315,68 +11315,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -11384,16 +11384,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -11401,16 +11401,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -11418,16 +11418,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -11435,16 +11435,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -11452,16 +11452,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -11469,16 +11469,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="B22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -11486,16 +11486,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -11503,29 +11503,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -11533,14 +11533,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -11548,14 +11548,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -11563,14 +11563,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -11585,12 +11585,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -11598,36 +11598,36 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -11636,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -11648,155 +11648,155 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -13694,52 +13694,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -13748,6 +13702,52 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13758,7 +13758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
@@ -13773,92 +13773,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13881,68 +13881,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -13950,16 +13950,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -13967,16 +13967,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -13984,16 +13984,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -14001,16 +14001,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -14018,16 +14018,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -14035,16 +14035,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="B22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -14052,16 +14052,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -14069,29 +14069,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -14099,14 +14099,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -14114,14 +14114,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -14129,14 +14129,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -14151,12 +14151,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -14164,36 +14164,36 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -14214,155 +14214,155 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -16260,52 +16260,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -16314,6 +16268,52 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DCAU-Lyn_Cargo_ERP.xlsx
+++ b/DCAU-Lyn_Cargo_ERP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20490" windowHeight="7740" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DCAU-0001" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="DCAU-0004" sheetId="19" r:id="rId4"/>
     <sheet name="DCAU-0005" sheetId="20" r:id="rId5"/>
     <sheet name="DCAU-0006" sheetId="21" r:id="rId6"/>
+    <sheet name="DCAU-0007" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="159">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -446,9 +447,6 @@
     <t>El sistema debe tener emitido con exito una cotizacion de servicio para el cliente seleccionado</t>
   </si>
   <si>
-    <t>El caso de uso inicia cuando se desea realizar una cotizacion para un clietnte desde el sistema. El usuario con permiso se dirige a la pantalla de Cotizaciones. Ahi, creara una nueva cotizacion, donde llenara cual es el cliente a cotizar, cuales son los datos del servicio y los items y montos de la cotizacion en si. Una vez llenado, guardara la cotizacion en el sistema y se podra verificar en la misma pantalla esa cotizacion y enviar a imprimir el documento o enviar un correo electronic. Fin de caso de uso</t>
-  </si>
-  <si>
     <t>REQ-005</t>
   </si>
   <si>
@@ -458,10 +456,52 @@
     <t>El sistema muestra una nueva ventana con los campos a llenar para la cotizacion</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario llena los siguientes campos: Cliente, Puerto de Salida, Puerto de Entrada, Tipo de operacion (importacion, exportacion, aduanas y transporte terrestres), medio de trannsporte (Aereo, maritimo, terrestre), descripcion de mercancia, Cantidad por Servicio(contenedores, bultos, peso), Fecha validacion hasta, </t>
+    <t>El  usuario llena los campos con los datos del cliente: Nombre, Apellido, Cedula, Telefono, Direccion, Correo</t>
   </si>
   <si>
-    <t>El  usuario llena los campos con los datos del cliente: Nombre, Apellido, Cedula, Telefono, Direccion, Correo</t>
+    <t>El caso de uso inicia cuando se desea realizar una cotizacion para un clietnte desde el sistema. El usuario con permiso se dirige a la pantalla de Cotizaciones. Ahi, creara una nueva cotizacion, donde llenara cual es el cliente a cotizar, cuales son los datos del servicio y los items y montos de la cotizacion en si. Una vez llenado, guardara la cotizacion en el sistema. Fin de caso de uso</t>
+  </si>
+  <si>
+    <t>El usuario llena los siguientes campos: Cliente, Shipper, Moneda, Lugar de embarque, Lugar de desembarque, Termino(s), ETS/ETA, Descripcion de mercancia y Items de venta</t>
+  </si>
+  <si>
+    <t>El sistema guarda los datos de la cotizacion</t>
+  </si>
+  <si>
+    <t>Si se cancela la operacion en medio del registro o modificacion de la cotizacion, no se guarda ningun dato</t>
+  </si>
+  <si>
+    <t>Creacion y manejo Expedientes</t>
+  </si>
+  <si>
+    <t>DCAU-0007</t>
+  </si>
+  <si>
+    <t>En este caso de uso el proposito es que se pueda crear y manejar los expedientes de embarques que se emiten desde el sistema para los clientes</t>
+  </si>
+  <si>
+    <t>El cliente del expediente debe estar previamente registrado en el sitema</t>
+  </si>
+  <si>
+    <t>El sistema debe tener emitido con exito un expediente de embarque para el cliente seleccionado</t>
+  </si>
+  <si>
+    <t>El caso de uso inicia cuando se desea crear un expediente de embarque para un clietnte desde el sistema. El usuario con permiso se dirige a la pantalla de Expedientes. Ahi, creara un nuevo expediente, donde llenara cual es el cliente y cuales son los datos del embarque. Una vez llenado, guardara el expediente en el sistema. Fin de caso de uso</t>
+  </si>
+  <si>
+    <t>REQ-006, REQ-007</t>
+  </si>
+  <si>
+    <t>El sistema muestra una nueva ventana con los campos a llenar para el embarque</t>
+  </si>
+  <si>
+    <t>El usuario llena los siguientes campos: Cliente, Fecha de inicio/Fecha fin, Moneda, Descripcion, Agente, Mercado, Puerto de embarque, Puerto de desembarque, Embarcacion, Viaje, Shipper, Fecha estima llegada/salida</t>
+  </si>
+  <si>
+    <t>El sistema guarda los datos del embarque</t>
+  </si>
+  <si>
+    <t>Si el usuario selecciona una cotizacion, cuando se eliga el sistema debera llenar los siguientes campos que provienen de la cotizacion: Cliente, Moneda, Descripcion, Puerto de embarque, Puerto de desembarque, Shipper, Fecha estima llegada/salida</t>
   </si>
 </sst>
 </file>
@@ -634,6 +674,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,6 +695,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -663,9 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -684,30 +748,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1034,92 +1074,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1142,68 +1182,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -1211,16 +1251,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -1228,16 +1268,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -1245,29 +1285,29 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -1275,14 +1315,14 @@
       <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -1290,14 +1330,14 @@
       <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -1305,14 +1345,14 @@
       <c r="A23" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -1320,12 +1360,12 @@
       <c r="A24" s="10">
         <v>4</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
@@ -1333,12 +1373,12 @@
       <c r="A25" s="10">
         <v>5</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
@@ -1346,36 +1386,36 @@
       <c r="A26" s="10">
         <v>6</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -1383,168 +1423,168 @@
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -3442,35 +3482,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B13:G13"/>
@@ -3487,6 +3498,35 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3511,92 +3551,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3619,68 +3659,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -3688,16 +3728,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -3705,16 +3745,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
+      <c r="B18" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -3722,16 +3762,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -3739,16 +3779,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -3756,16 +3796,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -3773,16 +3813,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -3790,16 +3830,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -3807,29 +3847,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -3837,14 +3877,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -3852,14 +3892,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -3867,14 +3907,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -3889,12 +3929,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -3902,36 +3942,36 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -3939,168 +3979,2733 @@
       <c r="A34" s="11">
         <v>1</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I220"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>7</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>9</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>5</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>6</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -6057,12 +8662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,92 +8681,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -6184,68 +8789,68 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
+      <c r="B16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -6253,16 +8858,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -6270,16 +8875,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -6287,16 +8892,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -6304,16 +8909,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -6321,16 +8926,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="B21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -6338,16 +8943,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -6355,16 +8960,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="B23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -6372,29 +8977,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -6402,14 +9007,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -6417,14 +9022,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -6432,14 +9037,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -6454,12 +9059,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -6467,205 +9072,205 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="B34" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -8563,6 +11168,47 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -8576,58 +11222,18 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I220"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:G21"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8641,92 +11247,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8745,72 +11351,72 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
+      <c r="B16" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
@@ -8818,16 +11424,16 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -8835,16 +11441,16 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
@@ -8852,16 +11458,16 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -8869,16 +11475,16 @@
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
@@ -8886,16 +11492,16 @@
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
+      <c r="B21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
@@ -8903,16 +11509,16 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -8920,16 +11526,16 @@
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="B23" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
@@ -8937,29 +11543,29 @@
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -8967,14 +11573,14 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -8982,14 +11588,14 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -8997,14 +11603,14 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -9019,12 +11625,12 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
@@ -9032,45 +11638,45 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -9082,155 +11688,155 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -11128,6 +13734,47 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -11141,58 +13788,17 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I220"/>
+  <dimension ref="A4:I213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
@@ -11207,92 +13813,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11311,503 +13917,451 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>3</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>3</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>5</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>6</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="30"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="A26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>2</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>3</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>5</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>6</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>1</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -13615,85 +16169,34 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="39">
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -13707,59 +16210,18 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I220"/>
+  <dimension ref="A4:I213"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13773,92 +16235,92 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13881,499 +16343,451 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>3</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>3</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>5</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>6</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="30"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="A26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>2</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>3</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+    <row r="28" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>5</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>6</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>1</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -16181,85 +18595,39 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="39">
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="B4:D4"/>
@@ -16268,52 +18636,6 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
